--- a/excel/Описание_работ/7/Английский язык/ALL.xlsx
+++ b/excel/Описание_работ/7/Английский язык/ALL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>№ КИМ</t>
   </si>
@@ -66,37 +66,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>2.3</t>
   </si>
   <si>
     <t>Б</t>
@@ -442,7 +424,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,173 +469,146 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Описание_работ/7/Английский язык/ALL.xlsx
+++ b/excel/Описание_работ/7/Английский язык/ALL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>№ КИМ</t>
   </si>
@@ -66,19 +66,37 @@
     <t>1</t>
   </si>
   <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>2.2</t>
+  </si>
+  <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>2.3</t>
   </si>
   <si>
     <t>Б</t>
@@ -424,7 +442,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,146 +487,173 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Описание_работ/7/Английский язык/ALL.xlsx
+++ b/excel/Описание_работ/7/Английский язык/ALL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>№ КИМ</t>
   </si>
@@ -66,37 +66,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>2.3</t>
   </si>
   <si>
     <t>Б</t>
@@ -442,7 +424,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,173 +469,146 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
